--- a/WebProgramming/war/WEB-INF/excel/Concert_organizations_2016-03-16.xlsx
+++ b/WebProgramming/war/WEB-INF/excel/Concert_organizations_2016-03-16.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10440" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="133">
   <si>
     <t>№</t>
   </si>
@@ -65,9 +66,6 @@
   </si>
   <si>
     <t>Прочее</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>Государственное бюджетное учреждение культуры "Государственная филармония Санкт-Петербурга для детей и юношества"</t>
@@ -421,8 +419,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,17 +456,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -506,9 +512,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,9 +546,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,9 +581,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -749,19 +757,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" customWidth="1"/>
     <col min="3" max="3" width="78.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="100.7109375" customWidth="1"/>
-    <col min="6" max="6" width="100.7109375" customWidth="1"/>
+    <col min="5" max="6" width="100.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="68.7109375" customWidth="1"/>
     <col min="9" max="9" width="45.7109375" customWidth="1"/>
@@ -775,7 +784,7 @@
     <col min="17" max="17" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,534 +837,534 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>27</v>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>27</v>
+      <c r="O5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>27</v>
+      <c r="O7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>27</v>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>27</v>
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>27</v>
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P10" s="1" t="s">
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="P11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
